--- a/data/data-dictionary.xlsx
+++ b/data/data-dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishk\gitrepos\pubs\pr_mort_official\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA32F215-C9F5-497E-B29B-E86B0677296F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636208B-A957-421A-A1CA-5ED90D1869AB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="458" windowWidth="25358" windowHeight="14183" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,15 +56,6 @@
     <t>number of days that a member of the household was unable to afford care</t>
   </si>
   <si>
-    <t>99: NA
-0: 0 days
-1: 1 day
-2: 2 days
-3: 3-7 days
-4: 8-30 days
-5: &gt;30 days</t>
-  </si>
-  <si>
     <t>access_med.facility_closed</t>
   </si>
   <si>
@@ -545,6 +536,16 @@
   </si>
   <si>
     <t>1 for yes 0 for no</t>
+  </si>
+  <si>
+    <t>99: NA
+0: 0 days
+1: 1 day
+2: 2 days
+3: 3-7 days
+4: 8-30 days
+5: &gt;30 days
+6: Still don't have it</t>
   </si>
 </sst>
 </file>
@@ -630,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,6 +653,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -976,668 +980,668 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
+      <c r="C3" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
+      <c r="C4" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
+      <c r="C5" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
+      <c r="C6" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
+      <c r="C7" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
+      <c r="C8" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
+      <c r="C9" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
+      <c r="C10" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
+      <c r="C11" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
+      <c r="C12" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="C49" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="C55" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="C58" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
